--- a/DS-160 Time Sheet.xlsx
+++ b/DS-160 Time Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6154efbec6b8f98b/Desktop/CS-150/DS-160/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6154efbec6b8f98b/Desktop/DS-160/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{10BC819A-6634-452C-80CE-FE2B93F52189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{304CD73E-A0DA-4D81-82DF-ECBC19D11B09}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{10BC819A-6634-452C-80CE-FE2B93F52189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08CB4CD0-48B9-4A80-8E9F-DA18CF6B7BBB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{343C059A-F24C-42D2-8BD7-028C966BDFC6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="41">
   <si>
     <t>Initials</t>
   </si>
@@ -126,6 +126,39 @@
   </si>
   <si>
     <t>HW: log hours</t>
+  </si>
+  <si>
+    <t>Class: Assignment 2</t>
+  </si>
+  <si>
+    <t>Class: chapter Napoli case</t>
+  </si>
+  <si>
+    <t>Class: chapter 3</t>
+  </si>
+  <si>
+    <t>Podcast Summary</t>
+  </si>
+  <si>
+    <t>Study for Quiz</t>
+  </si>
+  <si>
+    <t>Group project</t>
+  </si>
+  <si>
+    <t>Stock portfolio</t>
+  </si>
+  <si>
+    <t>chapter 1</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>Time sheet</t>
   </si>
 </sst>
 </file>
@@ -186,8 +219,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9880CBBF-4A1B-4977-878D-AB310D0673CB}" name="Table1" displayName="Table1" ref="A1:F23" totalsRowShown="0">
-  <autoFilter ref="A1:F23" xr:uid="{9880CBBF-4A1B-4977-878D-AB310D0673CB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9880CBBF-4A1B-4977-878D-AB310D0673CB}" name="Table1" displayName="Table1" ref="A1:F37" totalsRowShown="0">
+  <autoFilter ref="A1:F37" xr:uid="{9880CBBF-4A1B-4977-878D-AB310D0673CB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F4F9F60D-8ECA-4C0D-BE24-02758CA87E5C}" name="Initials"/>
     <tableColumn id="2" xr3:uid="{2AA07280-5664-47EF-B948-64E1DE50B7D9}" name="date" dataDxfId="0"/>
@@ -497,15 +530,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D64276-2988-4F5D-B990-E07157FAFBC5}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -990,9 +1023,289 @@
         <v>23</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45308</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45308</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45308</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45308</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45312</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>180</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45312</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>120</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45313</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45313</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45313</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45313</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45313</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23" xr:uid="{07B71576-AC47-4F6F-830D-453AA104EAC0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30 C34:C36" xr:uid="{07B71576-AC47-4F6F-830D-453AA104EAC0}">
       <formula1>$H$1:$H$6</formula1>
     </dataValidation>
   </dataValidations>
